--- a/public/assets/result/Budiono_4.xlsx
+++ b/public/assets/result/Budiono_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -163,13 +163,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>ROHIM B.</t>
+    <t>BUDIONO</t>
   </si>
 </sst>
 </file>
@@ -922,19 +919,19 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J13" s="5">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="K13" s="5">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L13" s="5">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13"/>
     </row>
@@ -996,16 +993,16 @@
         <v>27</v>
       </c>
       <c r="I15" s="5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J15" s="5">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K15" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L15" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1033,19 +1030,19 @@
         <v>26</v>
       </c>
       <c r="I16" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16"/>
     </row>
@@ -1070,16 +1067,16 @@
         <v>27</v>
       </c>
       <c r="I17" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J17" s="5">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K17" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L17" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1107,16 +1104,16 @@
         <v>31</v>
       </c>
       <c r="I18" s="5">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J18" s="5">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K18" s="5">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L18" s="5">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1144,19 +1141,19 @@
         <v>31</v>
       </c>
       <c r="I19" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="J19" s="5">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="K19" s="5">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="L19" s="5">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19"/>
     </row>
@@ -1218,16 +1215,16 @@
         <v>24</v>
       </c>
       <c r="I21" s="5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J21" s="5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="K21" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L21" s="5">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1255,16 +1252,16 @@
         <v>27</v>
       </c>
       <c r="I22" s="5">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J22" s="5">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K22" s="5">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L22" s="5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -1292,19 +1289,19 @@
         <v>31</v>
       </c>
       <c r="I23" s="5">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="J23" s="5">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="K23" s="5">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L23" s="5">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23"/>
     </row>
@@ -1329,19 +1326,19 @@
         <v>26</v>
       </c>
       <c r="I24" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J24" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K24" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L24" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24"/>
     </row>
@@ -1440,16 +1437,16 @@
         <v>27</v>
       </c>
       <c r="I27" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J27" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K27" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L27" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1477,19 +1474,19 @@
         <v>31</v>
       </c>
       <c r="I28" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L28" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28"/>
     </row>
@@ -1575,9 +1572,7 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="K35" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="N35" s="1"/>
     </row>
@@ -1593,10 +1588,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="D38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="L38" s="4"/>
       <c r="N38" s="1"/>
